--- a/Benchmark-Models/Zheng_PNAS2012/General_info.xlsx
+++ b/Benchmark-Models/Zheng_PNAS2012/General_info.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-likelihood value of the model is </t>
+    <t xml:space="preserve">2*Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -580,6 +580,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
